--- a/b_results/ClusteringResultsTable.xlsx
+++ b/b_results/ClusteringResultsTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="28740" windowHeight="17220" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="40" yWindow="0" windowWidth="28740" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,10 @@
     <t>mRNA</t>
   </si>
   <si>
-    <t>protein</t>
-  </si>
-  <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Protein</t>
   </si>
 </sst>
 </file>
@@ -174,8 +174,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -204,9 +208,13 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -539,7 +547,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -600,7 +608,7 @@
         <v>-23.99</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>6</v>
@@ -609,7 +617,7 @@
         <v>-12.27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="8">
         <v>77</v>
@@ -643,7 +651,7 @@
         <v>-3.04</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="8">
         <v>9</v>
@@ -765,7 +773,7 @@
         <v>-2.17</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="8">
         <v>23</v>
@@ -816,7 +824,7 @@
         <v>-2.82</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -826,7 +834,7 @@
     </row>
     <row r="18" spans="1:7" ht="16" thickBot="1">
       <c r="A18" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -862,7 +870,7 @@
         <v>-4.21</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>6</v>
@@ -871,7 +879,7 @@
         <v>-2.19</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="8">
         <v>53</v>
@@ -915,7 +923,7 @@
         <v>-3.15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>10</v>
@@ -924,7 +932,7 @@
         <v>-1.8</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="4">
         <v>64</v>
@@ -956,7 +964,7 @@
         <v>-3.26</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" s="4">
         <v>6</v>
@@ -973,7 +981,7 @@
         <v>-3.22</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="4">
         <v>6</v>
@@ -1024,7 +1032,7 @@
         <v>-2.86</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G29" s="8">
         <v>11</v>
@@ -1038,7 +1046,7 @@
         <v>-4.78</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>19</v>
@@ -1047,7 +1055,7 @@
         <v>-3.31</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" s="4">
         <v>90</v>
@@ -1064,7 +1072,7 @@
         <v>-8.01</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" s="4">
         <v>11</v>
@@ -1078,7 +1086,7 @@
         <v>-23.39</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
